--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -425,41 +425,432 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1001</v>
+        <v>1212/12</v>
       </c>
       <c r="B2" t="str">
         <v>John Doe</v>
       </c>
-      <c r="C2" t="str">
-        <v>A</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>East Wing</v>
+        <v>block 7</v>
       </c>
       <c r="E2" t="str">
-        <v>Taken</v>
+        <v>Not taken</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1002/15</v>
+        <v>0000/00</v>
       </c>
       <c r="B3" t="str">
-        <v>John Doe</v>
-      </c>
-      <c r="C3" t="str">
-        <v>A</v>
+        <v>kidus</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>East Wing</v>
+        <v>block 4</v>
       </c>
       <c r="E3" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0001/01</v>
+      </c>
+      <c r="B4" t="str">
+        <v>maste</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0002/02</v>
+      </c>
+      <c r="B5" t="str">
+        <v>kalesh</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0003/03</v>
+      </c>
+      <c r="B6" t="str">
+        <v>naty</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0003/03</v>
+      </c>
+      <c r="B7" t="str">
+        <v>kidest</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0004/04</v>
+      </c>
+      <c r="B8" t="str">
+        <v>lela</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0005/05</v>
+      </c>
+      <c r="B9" t="str">
+        <v>poe</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E9" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0006/06</v>
+      </c>
+      <c r="B10" t="str">
+        <v>man</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0007/07</v>
+      </c>
+      <c r="B11" t="str">
+        <v>women</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0008/08</v>
+      </c>
+      <c r="B12" t="str">
+        <v>pate</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E12" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0009/09</v>
+      </c>
+      <c r="B13" t="str">
+        <v>kit</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0010/10</v>
+      </c>
+      <c r="B14" t="str">
+        <v>det</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0011/11</v>
+      </c>
+      <c r="B15" t="str">
+        <v>qut</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0012/12</v>
+      </c>
+      <c r="B16" t="str">
+        <v>blue</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0013/13</v>
+      </c>
+      <c r="B17" t="str">
+        <v>nun</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0014/14</v>
+      </c>
+      <c r="B18" t="str">
+        <v>pur</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E18" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0015/15</v>
+      </c>
+      <c r="B19" t="str">
+        <v xml:space="preserve">solomon </v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0016/16</v>
+      </c>
+      <c r="B20" t="str">
+        <v>dese</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0017/17</v>
+      </c>
+      <c r="B21" t="str">
+        <v>maki</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E21" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0018/18</v>
+      </c>
+      <c r="B22" t="str">
+        <v>meky</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0019/19</v>
+      </c>
+      <c r="B23" t="str">
+        <v>naty</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0020/20</v>
+      </c>
+      <c r="B24" t="str">
+        <v>doro</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="str">
+        <v>block 7</v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve">Not taken </v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0021/21</v>
+      </c>
+      <c r="B25" t="str">
+        <v>tibs</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="str">
+        <v>block 2</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Taken</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0022/22</v>
+      </c>
+      <c r="B26" t="str">
+        <v>nun</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="str">
+        <v>block 3</v>
+      </c>
+      <c r="E26" t="str">
         <v>Taken</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
   </ignoredErrors>
 </worksheet>
 </file>